--- a/Frekuensi/Frekuensi Penyusun Ndong_09.xlsx
+++ b/Frekuensi/Frekuensi Penyusun Ndong_09.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A140"/>
+  <dimension ref="A1:A168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -379,7 +379,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>1076.66015625</v>
+        <v>1055.126953125</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -439,17 +439,17 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>1098.193359375</v>
+        <v>1076.66015625</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>1098.193359375</v>
+        <v>1076.66015625</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>1098.193359375</v>
+        <v>1076.66015625</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -459,7 +459,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>1076.66015625</v>
+        <v>1098.193359375</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -469,17 +469,17 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>1076.66015625</v>
+        <v>1098.193359375</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>1098.193359375</v>
+        <v>1076.66015625</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>1098.193359375</v>
+        <v>1076.66015625</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -1069,6 +1069,146 @@
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
+        <v>1098.193359375</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141">
+        <v>1098.193359375</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142">
+        <v>1098.193359375</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143">
+        <v>1098.193359375</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144">
+        <v>1098.193359375</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145">
+        <v>1098.193359375</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146">
+        <v>1098.193359375</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147">
+        <v>1098.193359375</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148">
+        <v>1098.193359375</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149">
+        <v>1098.193359375</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150">
+        <v>1098.193359375</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151">
+        <v>1098.193359375</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152">
+        <v>1098.193359375</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153">
+        <v>1098.193359375</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154">
+        <v>1098.193359375</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155">
+        <v>1098.193359375</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156">
+        <v>1098.193359375</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157">
+        <v>1098.193359375</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158">
+        <v>1098.193359375</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159">
+        <v>1098.193359375</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160">
+        <v>1098.193359375</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161">
+        <v>1098.193359375</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162">
+        <v>1098.193359375</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163">
+        <v>1098.193359375</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164">
+        <v>1098.193359375</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165">
+        <v>1098.193359375</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166">
+        <v>1098.193359375</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167">
+        <v>1098.193359375</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168">
         <v>1098.193359375</v>
       </c>
     </row>
